--- a/biology/Botanique/Entandrophragma_utile/Entandrophragma_utile.xlsx
+++ b/biology/Botanique/Entandrophragma_utile/Entandrophragma_utile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Sipo (Entandrophragma utile) est un très grand arbre de la famille des Meliaceae. On le trouve dans la forêt dense africaine, son bois est très utilisé en menuiserie extérieure, en ébénisterie, pour le contreplaqué.
 Au Musée royal de l'Afrique centrale à Tervuren (Belgique) est exposée une grande pirogue monoxyle, en provenance du Congo belge, longue de 22,5 m et d'un poids de quelque 3 500 kg, creusée dans un tronc d’Entandrophragma utile.
